--- a/T25/REORDERED_Tcristinae_LD2023_DNA_ID.xlsx
+++ b/T25/REORDERED_Tcristinae_LD2023_DNA_ID.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasparchman/Documents/GitHub/RFseq_projects/T25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC05E8D8-9F8C-054C-AEC2-042224D3191F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DF5A1E-08AF-BB49-9162-5D75C84472D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22540" yWindow="11460" windowWidth="30240" windowHeight="17600" activeTab="1" xr2:uid="{3046FB97-407E-7045-8890-4FF4B5F533AD}"/>
+    <workbookView xWindow="21320" yWindow="14360" windowWidth="30240" windowHeight="17600" activeTab="3" xr2:uid="{3046FB97-407E-7045-8890-4FF4B5F533AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Blue lib" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="2001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2198" uniqueCount="2002">
   <si>
     <t>PLATE 1</t>
   </si>
@@ -6042,13 +6042,16 @@
   </si>
   <si>
     <t>BLANK</t>
+  </si>
+  <si>
+    <t>plated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6136,6 +6139,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -6713,7 +6723,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -7123,27 +7133,6 @@
     <xf numFmtId="49" fontId="3" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -7178,6 +7167,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7612,7 +7605,7 @@
       <c r="M2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="152" t="s">
+      <c r="N2" s="145" t="s">
         <v>1993</v>
       </c>
     </row>
@@ -7984,7 +7977,7 @@
       <c r="M12" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="N12" s="153" t="s">
+      <c r="N12" s="146" t="s">
         <v>1994</v>
       </c>
     </row>
@@ -8356,7 +8349,7 @@
       <c r="M22" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="N22" s="153" t="s">
+      <c r="N22" s="146" t="s">
         <v>1995</v>
       </c>
     </row>
@@ -8728,7 +8721,7 @@
       <c r="M33" s="57" t="s">
         <v>311</v>
       </c>
-      <c r="N33" s="154" t="s">
+      <c r="N33" s="147" t="s">
         <v>1996</v>
       </c>
     </row>
@@ -9096,7 +9089,7 @@
       <c r="M43" s="57" t="s">
         <v>408</v>
       </c>
-      <c r="N43" s="154" t="s">
+      <c r="N43" s="147" t="s">
         <v>1997</v>
       </c>
     </row>
@@ -10018,7 +10011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE99E5C-59C0-4049-B48B-AC4FE80DCB2E}">
   <dimension ref="A1:N76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
@@ -10105,7 +10098,7 @@
       <c r="M2" s="122" t="s">
         <v>1228</v>
       </c>
-      <c r="N2" s="155" t="s">
+      <c r="N2" s="148" t="s">
         <v>1993</v>
       </c>
     </row>
@@ -10475,7 +10468,7 @@
       <c r="M13" s="122" t="s">
         <v>1325</v>
       </c>
-      <c r="N13" s="155" t="s">
+      <c r="N13" s="148" t="s">
         <v>1994</v>
       </c>
     </row>
@@ -10847,7 +10840,7 @@
       <c r="M24" s="122" t="s">
         <v>1422</v>
       </c>
-      <c r="N24" s="155" t="s">
+      <c r="N24" s="148" t="s">
         <v>1995</v>
       </c>
     </row>
@@ -11217,7 +11210,7 @@
       <c r="M35" s="122" t="s">
         <v>1519</v>
       </c>
-      <c r="N35" s="155" t="s">
+      <c r="N35" s="148" t="s">
         <v>1996</v>
       </c>
     </row>
@@ -11883,7 +11876,7 @@
       <c r="M57" s="122" t="s">
         <v>1616</v>
       </c>
-      <c r="N57" s="155" t="s">
+      <c r="N57" s="148" t="s">
         <v>1998</v>
       </c>
     </row>
@@ -12195,7 +12188,7 @@
       <c r="M68" s="122" t="s">
         <v>1683</v>
       </c>
-      <c r="N68" s="155" t="s">
+      <c r="N68" s="148" t="s">
         <v>1999</v>
       </c>
     </row>
@@ -14474,15 +14467,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8242C7-82ED-7A43-8AA9-68DD7425862D}">
-  <dimension ref="A1:X42"/>
+  <dimension ref="A1:Y42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="102" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="125" t="s">
         <v>1768</v>
       </c>
@@ -14523,7 +14516,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -14563,8 +14556,11 @@
       <c r="M2" s="80" t="s">
         <v>1780</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N2" s="150" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>14</v>
       </c>
@@ -14605,7 +14601,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>27</v>
       </c>
@@ -14646,7 +14642,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>40</v>
       </c>
@@ -14687,7 +14683,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>53</v>
       </c>
@@ -14728,7 +14724,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>66</v>
       </c>
@@ -14769,7 +14765,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>79</v>
       </c>
@@ -14810,7 +14806,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>92</v>
       </c>
@@ -14851,7 +14847,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="126" t="s">
         <v>1865</v>
       </c>
@@ -14892,7 +14888,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>1</v>
       </c>
@@ -14932,8 +14928,11 @@
       <c r="M13" s="80" t="s">
         <v>1877</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N13" s="150" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>14</v>
       </c>
@@ -14974,7 +14973,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>27</v>
       </c>
@@ -15015,7 +15014,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>40</v>
       </c>
@@ -15056,7 +15055,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>53</v>
       </c>
@@ -15097,7 +15096,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>66</v>
       </c>
@@ -15138,7 +15137,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>79</v>
       </c>
@@ -15179,7 +15178,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>92</v>
       </c>
@@ -15220,7 +15219,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="63" t="s">
         <v>493</v>
       </c>
@@ -15260,8 +15259,17 @@
       <c r="M23" s="65">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q23" s="149"/>
+      <c r="R23" s="149"/>
+      <c r="S23" s="149"/>
+      <c r="T23" s="149"/>
+      <c r="U23" s="149"/>
+      <c r="V23" s="149"/>
+      <c r="W23" s="149"/>
+      <c r="X23" s="149"/>
+      <c r="Y23" s="149"/>
+    </row>
+    <row r="24" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>1</v>
       </c>
@@ -15296,14 +15304,21 @@
       <c r="L24" s="81" t="s">
         <v>911</v>
       </c>
-      <c r="M24" s="81" t="s">
-        <v>911</v>
-      </c>
+      <c r="M24" s="81"/>
       <c r="N24" s="135" t="s">
         <v>1973</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q24" s="149"/>
+      <c r="R24" s="149"/>
+      <c r="S24" s="149"/>
+      <c r="T24" s="149"/>
+      <c r="U24" s="149"/>
+      <c r="V24" s="149"/>
+      <c r="W24" s="149"/>
+      <c r="X24" s="149"/>
+      <c r="Y24" s="149"/>
+    </row>
+    <row r="25" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>14</v>
       </c>
@@ -15332,32 +15347,8 @@
       <c r="N25" t="s">
         <v>1974</v>
       </c>
-      <c r="Q25" s="137" t="s">
-        <v>1975</v>
-      </c>
-      <c r="R25" s="139" t="s">
-        <v>1977</v>
-      </c>
-      <c r="S25" s="141" t="s">
-        <v>1979</v>
-      </c>
-      <c r="T25" s="141" t="s">
-        <v>1981</v>
-      </c>
-      <c r="U25" s="141" t="s">
-        <v>1983</v>
-      </c>
-      <c r="V25" s="141" t="s">
-        <v>1985</v>
-      </c>
-      <c r="W25" s="141" t="s">
-        <v>1987</v>
-      </c>
-      <c r="X25" s="142" t="s">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>27</v>
       </c>
@@ -15377,32 +15368,8 @@
       <c r="M26" s="82" t="s">
         <v>936</v>
       </c>
-      <c r="Q26" s="138" t="s">
-        <v>1976</v>
-      </c>
-      <c r="R26" s="140" t="s">
-        <v>1978</v>
-      </c>
-      <c r="S26" s="140" t="s">
-        <v>1980</v>
-      </c>
-      <c r="T26" s="140" t="s">
-        <v>1982</v>
-      </c>
-      <c r="U26" s="140" t="s">
-        <v>1984</v>
-      </c>
-      <c r="V26" s="140" t="s">
-        <v>1986</v>
-      </c>
-      <c r="W26" s="140" t="s">
-        <v>1988</v>
-      </c>
-      <c r="X26" s="143" t="s">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>40</v>
       </c>
@@ -15446,7 +15413,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>53</v>
       </c>
@@ -15477,23 +15444,23 @@
       <c r="L28" s="129"/>
       <c r="M28" s="107"/>
     </row>
-    <row r="29" spans="1:24" ht="30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="145" t="s">
+      <c r="B29" s="138" t="s">
         <v>1984</v>
       </c>
-      <c r="C29" s="145" t="s">
+      <c r="C29" s="138" t="s">
         <v>1986</v>
       </c>
-      <c r="D29" s="145" t="s">
+      <c r="D29" s="138" t="s">
         <v>1988</v>
       </c>
-      <c r="E29" s="146" t="s">
+      <c r="E29" s="139" t="s">
         <v>1990</v>
       </c>
-      <c r="F29" s="147" t="s">
+      <c r="F29" s="140" t="s">
         <v>1208</v>
       </c>
       <c r="G29" s="69"/>
@@ -15509,7 +15476,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>79</v>
       </c>
@@ -15550,47 +15517,47 @@
         <v>589</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="148" t="s">
+      <c r="B31" s="141" t="s">
         <v>1975</v>
       </c>
-      <c r="C31" s="149" t="s">
+      <c r="C31" s="142" t="s">
         <v>1977</v>
       </c>
-      <c r="D31" s="150" t="s">
+      <c r="D31" s="143" t="s">
         <v>1979</v>
       </c>
-      <c r="E31" s="150" t="s">
+      <c r="E31" s="143" t="s">
         <v>1981</v>
       </c>
-      <c r="F31" s="150" t="s">
+      <c r="F31" s="143" t="s">
         <v>1983</v>
       </c>
-      <c r="G31" s="150" t="s">
+      <c r="G31" s="143" t="s">
         <v>1985</v>
       </c>
-      <c r="H31" s="150" t="s">
+      <c r="H31" s="143" t="s">
         <v>1987</v>
       </c>
-      <c r="I31" s="151" t="s">
+      <c r="I31" s="144" t="s">
         <v>1989</v>
       </c>
-      <c r="J31" s="147" t="s">
+      <c r="J31" s="140" t="s">
         <v>1976</v>
       </c>
-      <c r="K31" s="145" t="s">
+      <c r="K31" s="138" t="s">
         <v>1978</v>
       </c>
-      <c r="L31" s="145" t="s">
+      <c r="L31" s="138" t="s">
         <v>1980</v>
       </c>
-      <c r="M31" s="145" t="s">
+      <c r="M31" s="138" t="s">
         <v>1982</v>
       </c>
-      <c r="N31" s="144" t="s">
+      <c r="N31" s="137" t="s">
         <v>1992</v>
       </c>
     </row>

--- a/T25/REORDERED_Tcristinae_LD2023_DNA_ID.xlsx
+++ b/T25/REORDERED_Tcristinae_LD2023_DNA_ID.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasparchman/Documents/GitHub/RFseq_projects/T25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DF5A1E-08AF-BB49-9162-5D75C84472D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456EA09E-E234-E94B-9C47-3C752466A786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21320" yWindow="14360" windowWidth="30240" windowHeight="17600" activeTab="3" xr2:uid="{3046FB97-407E-7045-8890-4FF4B5F533AD}"/>
+    <workbookView xWindow="20620" yWindow="14700" windowWidth="30240" windowHeight="17600" activeTab="2" xr2:uid="{3046FB97-407E-7045-8890-4FF4B5F533AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Blue lib" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2198" uniqueCount="2002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="2008">
   <si>
     <t>PLATE 1</t>
   </si>
@@ -6045,6 +6045,24 @@
   </si>
   <si>
     <t>plated</t>
+  </si>
+  <si>
+    <t>bc1</t>
+  </si>
+  <si>
+    <t>bc2</t>
+  </si>
+  <si>
+    <t>bc3</t>
+  </si>
+  <si>
+    <t>bc6</t>
+  </si>
+  <si>
+    <t>bc5</t>
+  </si>
+  <si>
+    <t>bc4 CHECK if 6 replaced.</t>
   </si>
 </sst>
 </file>
@@ -6219,7 +6237,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -6719,11 +6737,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -7173,6 +7211,21 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7515,7 +7568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D225B3-888B-A041-BF18-A93AF78260CC}">
   <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="139" workbookViewId="0">
+    <sheetView topLeftCell="A32" zoomScale="139" workbookViewId="0">
       <selection activeCell="O65" sqref="O65"/>
     </sheetView>
   </sheetViews>
@@ -10011,7 +10064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE99E5C-59C0-4049-B48B-AC4FE80DCB2E}">
   <dimension ref="A1:N76"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A56" workbookViewId="0">
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
@@ -12423,15 +12476,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65B5915-8809-DB49-B024-B23C2A788B75}">
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>603</v>
       </c>
@@ -12472,7 +12525,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -12488,8 +12541,11 @@
       <c r="K2" s="67"/>
       <c r="L2" s="67"/>
       <c r="M2" s="67"/>
-    </row>
-    <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N2" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>14</v>
       </c>
@@ -12526,7 +12582,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>27</v>
       </c>
@@ -12567,7 +12623,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>40</v>
       </c>
@@ -12608,7 +12664,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>53</v>
       </c>
@@ -12649,7 +12705,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>66</v>
       </c>
@@ -12690,7 +12746,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>79</v>
       </c>
@@ -12731,7 +12787,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>92</v>
       </c>
@@ -12772,7 +12828,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>718</v>
       </c>
@@ -12813,7 +12869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>1</v>
       </c>
@@ -12853,8 +12909,11 @@
       <c r="M12" s="78" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N12" s="151" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>14</v>
       </c>
@@ -12895,7 +12954,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>27</v>
       </c>
@@ -12936,7 +12995,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>40</v>
       </c>
@@ -12977,7 +13036,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>53</v>
       </c>
@@ -13018,7 +13077,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>66</v>
       </c>
@@ -13059,7 +13118,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>79</v>
       </c>
@@ -13100,7 +13159,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>92</v>
       </c>
@@ -13141,7 +13200,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="50" t="s">
         <v>815</v>
       </c>
@@ -13182,7 +13241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>1</v>
       </c>
@@ -13222,8 +13281,11 @@
       <c r="M22" s="78" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N22" s="151" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>14</v>
       </c>
@@ -13264,7 +13326,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>27</v>
       </c>
@@ -13305,7 +13367,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>40</v>
       </c>
@@ -13346,7 +13408,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>53</v>
       </c>
@@ -13387,7 +13449,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>66</v>
       </c>
@@ -13428,7 +13490,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>79</v>
       </c>
@@ -13469,7 +13531,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>92</v>
       </c>
@@ -13500,7 +13562,7 @@
       <c r="L29" s="62"/>
       <c r="M29" s="62"/>
     </row>
-    <row r="31" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>912</v>
       </c>
@@ -13541,7 +13603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="28" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>1</v>
       </c>
@@ -13581,8 +13643,11 @@
       <c r="M32" s="88" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="152" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>14</v>
       </c>
@@ -13619,7 +13684,7 @@
       <c r="L33" s="101"/>
       <c r="M33" s="101"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>27</v>
       </c>
@@ -13636,7 +13701,7 @@
       <c r="L34" s="101"/>
       <c r="M34" s="101"/>
     </row>
-    <row r="35" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>40</v>
       </c>
@@ -13663,7 +13728,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>53</v>
       </c>
@@ -13704,7 +13769,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>66</v>
       </c>
@@ -13745,7 +13810,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>79</v>
       </c>
@@ -13786,7 +13851,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="86" t="s">
         <v>92</v>
       </c>
@@ -13827,7 +13892,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>1009</v>
       </c>
@@ -13868,7 +13933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>1</v>
       </c>
@@ -13908,8 +13973,11 @@
       <c r="M42" s="88" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="155" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>14</v>
       </c>
@@ -13950,7 +14018,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>27</v>
       </c>
@@ -13991,7 +14059,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>40</v>
       </c>
@@ -14032,7 +14100,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>53</v>
       </c>
@@ -14073,7 +14141,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>66</v>
       </c>
@@ -14114,7 +14182,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>79</v>
       </c>
@@ -14155,7 +14223,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>92</v>
       </c>
@@ -14196,7 +14264,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>1106</v>
       </c>
@@ -14237,7 +14305,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
         <v>1</v>
       </c>
@@ -14277,8 +14345,11 @@
       <c r="M52" s="78" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N52" s="151" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="16" t="s">
         <v>14</v>
       </c>
@@ -14319,7 +14390,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
         <v>27</v>
       </c>
@@ -14360,7 +14431,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
         <v>40</v>
       </c>
@@ -14379,7 +14450,7 @@
       <c r="L55" s="116"/>
       <c r="M55" s="116"/>
     </row>
-    <row r="56" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
         <v>53</v>
       </c>
@@ -14398,7 +14469,7 @@
       <c r="L56" s="116"/>
       <c r="M56" s="116"/>
     </row>
-    <row r="57" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
         <v>66</v>
       </c>
@@ -14417,7 +14488,7 @@
       <c r="L57" s="116"/>
       <c r="M57" s="116"/>
     </row>
-    <row r="58" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
         <v>79</v>
       </c>
@@ -14436,7 +14507,7 @@
       <c r="L58" s="116"/>
       <c r="M58" s="116"/>
     </row>
-    <row r="59" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="16" t="s">
         <v>92</v>
       </c>
@@ -14455,7 +14526,7 @@
       <c r="L59" s="116"/>
       <c r="M59" s="116"/>
     </row>
-    <row r="60" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" ht="28" x14ac:dyDescent="0.2">
       <c r="B60" s="117" t="s">
         <v>1207</v>
       </c>
@@ -14469,13 +14540,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8242C7-82ED-7A43-8AA9-68DD7425862D}">
   <dimension ref="A1:Y42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="102" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView zoomScale="102" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="125" t="s">
         <v>1768</v>
       </c>
@@ -14516,7 +14587,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -14559,8 +14630,11 @@
       <c r="N2" s="150" t="s">
         <v>2001</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="P2" s="153" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>14</v>
       </c>
@@ -14601,7 +14675,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>27</v>
       </c>
@@ -14642,7 +14716,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>40</v>
       </c>
@@ -14683,7 +14757,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>53</v>
       </c>
@@ -14724,7 +14798,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>66</v>
       </c>
@@ -14765,7 +14839,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>79</v>
       </c>
@@ -14806,7 +14880,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>92</v>
       </c>
@@ -14847,7 +14921,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="126" t="s">
         <v>1865</v>
       </c>
@@ -14888,7 +14962,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>1</v>
       </c>
@@ -14931,8 +15005,11 @@
       <c r="N13" s="150" t="s">
         <v>2001</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="P13" s="153" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>14</v>
       </c>
@@ -14973,7 +15050,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>27</v>
       </c>
@@ -15014,7 +15091,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>40</v>
       </c>
@@ -15307,6 +15384,9 @@
       <c r="M24" s="81"/>
       <c r="N24" s="135" t="s">
         <v>1973</v>
+      </c>
+      <c r="P24" s="154" t="s">
+        <v>2004</v>
       </c>
       <c r="Q24" s="149"/>
       <c r="R24" s="149"/>
@@ -15561,7 +15641,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
         <v>1671</v>
       </c>
@@ -15602,7 +15682,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
         <v>1</v>
       </c>
@@ -15618,8 +15698,11 @@
       <c r="K35" s="122"/>
       <c r="L35" s="122"/>
       <c r="M35" s="122"/>
-    </row>
-    <row r="36" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="P35" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>14</v>
       </c>
@@ -15636,7 +15719,7 @@
       <c r="L36" s="116"/>
       <c r="M36" s="116"/>
     </row>
-    <row r="37" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>27</v>
       </c>
@@ -15653,7 +15736,7 @@
       <c r="L37" s="116"/>
       <c r="M37" s="116"/>
     </row>
-    <row r="38" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
         <v>40</v>
       </c>
@@ -15670,7 +15753,7 @@
       <c r="L38" s="116"/>
       <c r="M38" s="116"/>
     </row>
-    <row r="39" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
         <v>53</v>
       </c>
@@ -15703,7 +15786,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
         <v>66</v>
       </c>
@@ -15744,7 +15827,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
         <v>79</v>
       </c>
@@ -15785,7 +15868,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
         <v>92</v>
       </c>
